--- a/Data/Output/부동산공시_20240416_박건후.xlsx
+++ b/Data/Output/부동산공시_20240416_박건후.xlsx
@@ -2516,7 +2516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2530,7 +2530,8 @@
     <col min="8" max="8" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="62.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
